--- a/Energy Consumption26.xlsx
+++ b/Energy Consumption26.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.022931364178239</v>
+        <v>3.043989068301713</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6421896349609</v>
+        <v>5.13616940762048</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.27942202979255</v>
+        <v>4.363588742201005</v>
       </c>
       <c r="C3" t="n">
-        <v>8.21992163623656</v>
+        <v>10.35558404259502</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.210986395180482</v>
+        <v>8.533237662149546</v>
       </c>
       <c r="C4" t="n">
-        <v>11.93962948623302</v>
+        <v>14.95076608011288</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.920663829847397</v>
+        <v>9.466511095318387</v>
       </c>
       <c r="C5" t="n">
-        <v>15.65617046191624</v>
+        <v>19.9179981284433</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.35182917176708</v>
+        <v>11.64294439302546</v>
       </c>
       <c r="C6" t="n">
-        <v>20.6142640171614</v>
+        <v>24.66635597833487</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.19980034143246</v>
+        <v>13.30997688524541</v>
       </c>
       <c r="C7" t="n">
-        <v>24.45643168177819</v>
+        <v>30.28199444573522</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.52895434443062</v>
+        <v>15.51961208849998</v>
       </c>
       <c r="C8" t="n">
-        <v>28.68373258878389</v>
+        <v>34.97276062348703</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.40202520935786</v>
+        <v>16.58725555717313</v>
       </c>
       <c r="C9" t="n">
-        <v>32.62870441288857</v>
+        <v>39.6420962801613</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.2877455357596</v>
+        <v>17.41163180709681</v>
       </c>
       <c r="C10" t="n">
-        <v>36.44591920473812</v>
+        <v>44.16693946149432</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.98884612234659</v>
+        <v>19.91328570273131</v>
       </c>
       <c r="C11" t="n">
-        <v>40.42723873694406</v>
+        <v>48.89736243076941</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.10818000554033</v>
+        <v>22.0776141222408</v>
       </c>
       <c r="C12" t="n">
-        <v>44.47841448510861</v>
+        <v>53.63922239201244</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.52941344126535</v>
+        <v>23.47874095452984</v>
       </c>
       <c r="C13" t="n">
-        <v>48.26622934609234</v>
+        <v>58.90378840985626</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25.60942941867494</v>
+        <v>24.12165290875027</v>
       </c>
       <c r="C14" t="n">
-        <v>51.70367803815647</v>
+        <v>64.26472922535508</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.46987549071301</v>
+        <v>26.38038415588705</v>
       </c>
       <c r="C15" t="n">
-        <v>56.28650908358648</v>
+        <v>69.10319388144914</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.38779118541283</v>
+        <v>27.0150925882133</v>
       </c>
       <c r="C16" t="n">
-        <v>60.10717089902339</v>
+        <v>73.78285655139155</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30.51999904744736</v>
+        <v>29.05341866659325</v>
       </c>
       <c r="C17" t="n">
-        <v>63.8040249094615</v>
+        <v>79.19926814031516</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.94901775387641</v>
+        <v>29.88693720240534</v>
       </c>
       <c r="C18" t="n">
-        <v>67.68360588059512</v>
+        <v>84.15852415259724</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>35.37054145216729</v>
+        <v>32.16369071755351</v>
       </c>
       <c r="C19" t="n">
-        <v>71.03286034106802</v>
+        <v>89.79542322471247</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.91158359536672</v>
+        <v>34.85263026938543</v>
       </c>
       <c r="C20" t="n">
-        <v>75.65468737728281</v>
+        <v>94.62398898104446</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>39.82774935100883</v>
+        <v>36.39422954453094</v>
       </c>
       <c r="C21" t="n">
-        <v>79.52708437271365</v>
+        <v>99.02589449258451</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>42.08051973509844</v>
+        <v>37.28908488591861</v>
       </c>
       <c r="C22" t="n">
-        <v>83.36271542504439</v>
+        <v>103.841009211044</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>43.35894870400809</v>
+        <v>40.42136935877834</v>
       </c>
       <c r="C23" t="n">
-        <v>86.86187332568599</v>
+        <v>108.9693113427763</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44.46990950823594</v>
+        <v>44.11142920029371</v>
       </c>
       <c r="C24" t="n">
-        <v>90.70136316785403</v>
+        <v>114.0948169986551</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>47.44289972930086</v>
+        <v>46.71339351812423</v>
       </c>
       <c r="C25" t="n">
-        <v>94.56407812048784</v>
+        <v>118.4872412224238</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>49.44999340397693</v>
+        <v>47.8062963910805</v>
       </c>
       <c r="C26" t="n">
-        <v>98.45569586837767</v>
+        <v>123.0897594555255</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.84651995778226</v>
+        <v>51.44206547759828</v>
       </c>
       <c r="C27" t="n">
-        <v>102.4898897395951</v>
+        <v>127.8493472661304</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>56.10704255449242</v>
+        <v>55.10058070589977</v>
       </c>
       <c r="C28" t="n">
-        <v>105.8736520922592</v>
+        <v>132.2891525723353</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>58.68401200808719</v>
+        <v>56.71930550296261</v>
       </c>
       <c r="C29" t="n">
-        <v>109.5915224667985</v>
+        <v>137.1185123077073</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>60.95831478744373</v>
+        <v>57.39409084503254</v>
       </c>
       <c r="C30" t="n">
-        <v>113.4259579984154</v>
+        <v>141.8763955024542</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>61.67287706911095</v>
+        <v>58.58551925809187</v>
       </c>
       <c r="C31" t="n">
-        <v>117.6147406536612</v>
+        <v>147.1494066957908</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62.35047898068415</v>
+        <v>60.09049913560703</v>
       </c>
       <c r="C32" t="n">
-        <v>122.4130891761454</v>
+        <v>151.3209598548814</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>64.71260894201968</v>
+        <v>60.96758555427176</v>
       </c>
       <c r="C33" t="n">
-        <v>125.8265432932106</v>
+        <v>155.8254299724525</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>65.90440715424253</v>
+        <v>63.22136160098436</v>
       </c>
       <c r="C34" t="n">
-        <v>128.9304797267323</v>
+        <v>161.3283033110014</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68.47800327702231</v>
+        <v>64.59861273652717</v>
       </c>
       <c r="C35" t="n">
-        <v>132.1925091319595</v>
+        <v>166.3857361579106</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>69.35207669487436</v>
+        <v>65.83225132808828</v>
       </c>
       <c r="C36" t="n">
-        <v>135.8787352573952</v>
+        <v>171.5993831882853</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>72.08131874227674</v>
+        <v>67.49252721370647</v>
       </c>
       <c r="C37" t="n">
-        <v>139.6403927805736</v>
+        <v>176.619382611278</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.75556852529056</v>
+        <v>70.25875877705113</v>
       </c>
       <c r="C38" t="n">
-        <v>143.3034763898664</v>
+        <v>181.2819182761598</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.45424500163547</v>
+        <v>72.35330502517238</v>
       </c>
       <c r="C39" t="n">
-        <v>147.172189710001</v>
+        <v>185.6249571936228</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>79.77827272494663</v>
+        <v>75.28668362260612</v>
       </c>
       <c r="C40" t="n">
-        <v>150.9304782005714</v>
+        <v>191.1095766902215</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>81.82888833247428</v>
+        <v>77.7253803218552</v>
       </c>
       <c r="C41" t="n">
-        <v>154.8830332118999</v>
+        <v>195.9149614591009</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83.54621287777076</v>
+        <v>79.15234668990063</v>
       </c>
       <c r="C42" t="n">
-        <v>158.2490568585201</v>
+        <v>200.9886025623993</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>85.96128466174858</v>
+        <v>85.02180152514413</v>
       </c>
       <c r="C43" t="n">
-        <v>163.01874986797</v>
+        <v>206.0949967755045</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>87.28582254314293</v>
+        <v>86.25750359926629</v>
       </c>
       <c r="C44" t="n">
-        <v>166.4120212091655</v>
+        <v>210.7021400700368</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>90.77795837202247</v>
+        <v>89.39865241737415</v>
       </c>
       <c r="C45" t="n">
-        <v>169.731031611965</v>
+        <v>214.8790465407601</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>92.48170818862586</v>
+        <v>91.67356707135421</v>
       </c>
       <c r="C46" t="n">
-        <v>173.9699847564484</v>
+        <v>219.9688075817991</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>93.37909295546935</v>
+        <v>92.57749897978481</v>
       </c>
       <c r="C47" t="n">
-        <v>177.6126729936574</v>
+        <v>225.3474909829673</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>94.92968299357968</v>
+        <v>94.72152651894899</v>
       </c>
       <c r="C48" t="n">
-        <v>181.5531031287651</v>
+        <v>230.1766474558695</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>96.2535274622322</v>
+        <v>96.96846696674989</v>
       </c>
       <c r="C49" t="n">
-        <v>185.2150799049192</v>
+        <v>235.305886518541</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>98.38855656186226</v>
+        <v>99.1356606236715</v>
       </c>
       <c r="C50" t="n">
-        <v>189.3784935804879</v>
+        <v>240.0804058657262</v>
       </c>
     </row>
   </sheetData>
